--- a/index2017_data.xlsx
+++ b/index2017_data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JLCat\Learn-Python-for-Stats-and-Econ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0DAA364-07F2-46F3-AF01-FBEF0EB58F25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6ED4E59-C6C5-4CE3-ACFF-A53B2CBAF0DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -832,9 +832,6 @@
     <t>Fiscal Health</t>
   </si>
   <si>
-    <t>Judical Effectiveness</t>
-  </si>
-  <si>
     <t>Government Integrity</t>
   </si>
   <si>
@@ -988,11 +985,14 @@
       <t>(estimated)</t>
     </r>
   </si>
+  <si>
+    <t>Judicial Effectiveness</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
@@ -1256,10 +1256,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink 2" xfId="2"/>
+    <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
-    <cellStyle name="Normal 2 2" xfId="4"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1594,11 +1594,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1646,16 +1646,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>263</v>
@@ -2011,7 +2011,7 @@
         <v>23</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="X4" s="29">
         <v>44.444000000000003</v>
@@ -2116,7 +2116,7 @@
         <v>30</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="X5" s="29">
         <v>28.925999999999998</v>
@@ -2163,7 +2163,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E6" s="9">
         <v>156</v>
@@ -2688,7 +2688,7 @@
         <v>27</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E11" s="9">
         <v>90</v>
@@ -3005,7 +3005,7 @@
         <v>30</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E14" s="9">
         <v>130</v>
@@ -3320,7 +3320,7 @@
         <v>33</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E17" s="9">
         <v>101</v>
@@ -3483,7 +3483,7 @@
         <v>30</v>
       </c>
       <c r="W18" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="X18" s="29">
         <v>24.852</v>
@@ -3635,7 +3635,7 @@
         <v>36</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E20" s="9">
         <v>168</v>
@@ -3903,7 +3903,7 @@
         <v>22</v>
       </c>
       <c r="W22" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="X22" s="29">
         <v>39.746000000000002</v>
@@ -3950,7 +3950,7 @@
         <v>40</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E23" s="9">
         <v>140</v>
@@ -4220,7 +4220,7 @@
         <v>27.5</v>
       </c>
       <c r="W25" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="X25" s="29">
         <v>21.271000000000001</v>
@@ -4430,7 +4430,7 @@
         <v>35</v>
       </c>
       <c r="W27" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="X27" s="29">
         <v>29.94</v>
@@ -4642,7 +4642,7 @@
         <v>33</v>
       </c>
       <c r="W29" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="X29" s="29">
         <v>23.516999999999999</v>
@@ -4689,7 +4689,7 @@
         <v>48</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E30" s="9">
         <v>7</v>
@@ -4959,7 +4959,7 @@
         <v>30</v>
       </c>
       <c r="W32" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="X32" s="29">
         <v>14.567</v>
@@ -5064,7 +5064,7 @@
         <v>45</v>
       </c>
       <c r="W33" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="X33" s="29">
         <v>17.103000000000002</v>
@@ -5111,7 +5111,7 @@
         <v>54</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E34" s="9">
         <v>10</v>
@@ -5321,7 +5321,7 @@
         <v>56</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E36" s="9">
         <v>37</v>
@@ -5484,7 +5484,7 @@
         <v>50</v>
       </c>
       <c r="W37" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="X37" s="29">
         <v>25.501999999999999</v>
@@ -5741,7 +5741,7 @@
         <v>63</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E40" s="9">
         <v>63</v>
@@ -5904,7 +5904,7 @@
         <v>25</v>
       </c>
       <c r="W41" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="X41" s="29">
         <v>22.7</v>
@@ -6056,7 +6056,7 @@
         <v>67</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E43" s="9">
         <v>178</v>
@@ -6583,7 +6583,7 @@
         <v>73</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E48" s="9">
         <v>67</v>
@@ -6688,7 +6688,7 @@
         <v>75</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E49" s="9">
         <v>76</v>
@@ -6793,7 +6793,7 @@
         <v>76</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E50" s="9">
         <v>160</v>
@@ -6956,7 +6956,7 @@
         <v>25</v>
       </c>
       <c r="W51" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="X51" s="29">
         <v>33.396999999999998</v>
@@ -7003,7 +7003,7 @@
         <v>79</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E52" s="9">
         <v>66</v>
@@ -7166,7 +7166,7 @@
         <v>35</v>
       </c>
       <c r="W53" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="X53" s="29">
         <v>38.213000000000001</v>
@@ -7271,7 +7271,7 @@
         <v>30</v>
       </c>
       <c r="W54" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="X54" s="29">
         <v>28.497</v>
@@ -7481,7 +7481,7 @@
         <v>30</v>
       </c>
       <c r="W56" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="X56" s="29">
         <v>18.64</v>
@@ -8010,7 +8010,7 @@
         <v>32</v>
       </c>
       <c r="W61" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X61" s="29">
         <v>28.189</v>
@@ -8325,7 +8325,7 @@
         <v>25</v>
       </c>
       <c r="W64" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="X64" s="29">
         <v>24.372</v>
@@ -8477,7 +8477,7 @@
         <v>94</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E66" s="9">
         <v>74</v>
@@ -8640,7 +8640,7 @@
         <v>35</v>
       </c>
       <c r="W67" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="X67" s="29">
         <v>28.489000000000001</v>
@@ -8745,7 +8745,7 @@
         <v>25</v>
       </c>
       <c r="W68" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="X68" s="29">
         <v>25.478999999999999</v>
@@ -8792,7 +8792,7 @@
         <v>98</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E69" s="9">
         <v>106</v>
@@ -8897,7 +8897,7 @@
         <v>99</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E70" s="9">
         <v>159</v>
@@ -9002,7 +9002,7 @@
         <v>100</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E71" s="9">
         <v>100</v>
@@ -9746,7 +9746,7 @@
         <v>255</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H78" s="10">
         <v>37.299999999999997</v>
@@ -9758,7 +9758,7 @@
         <v>19.100000000000001</v>
       </c>
       <c r="K78" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L78" s="11">
         <v>36.082247916666674</v>
@@ -9776,13 +9776,13 @@
         <v>76.88608323394179</v>
       </c>
       <c r="Q78" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R78" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="S78" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="T78" s="28" t="s">
         <v>255</v>
@@ -10156,7 +10156,7 @@
         <v>112</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E82" s="9">
         <v>41</v>
@@ -10634,7 +10634,7 @@
         <v>30</v>
       </c>
       <c r="W86" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="X86" s="29">
         <v>28.597999999999999</v>
@@ -11587,7 +11587,7 @@
         <v>25</v>
       </c>
       <c r="W95" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="X95" s="29">
         <v>59.326999999999998</v>
@@ -11692,7 +11692,7 @@
         <v>25</v>
       </c>
       <c r="W96" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="X96" s="29">
         <v>44.493000000000002</v>
@@ -11748,7 +11748,7 @@
         <v>255</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H97" s="10">
         <v>6.8</v>
@@ -11781,10 +11781,10 @@
         <v>80</v>
       </c>
       <c r="R97" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="S97" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="T97" s="28">
         <v>0</v>
@@ -11854,7 +11854,7 @@
         <v>255</v>
       </c>
       <c r="G98" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H98" s="10" t="s">
         <v>255</v>
@@ -11866,13 +11866,13 @@
         <v>255</v>
       </c>
       <c r="K98" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L98" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M98" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N98" s="11">
         <v>92.3</v>
@@ -11881,7 +11881,7 @@
         <v>85.714285714398073</v>
       </c>
       <c r="P98" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q98" s="11">
         <v>90</v>
@@ -12431,7 +12431,7 @@
         <v>20</v>
       </c>
       <c r="W103" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="X103" s="29">
         <v>15.512</v>
@@ -12536,7 +12536,7 @@
         <v>30</v>
       </c>
       <c r="W104" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="X104" s="29">
         <v>30.684000000000001</v>
@@ -12851,7 +12851,7 @@
         <v>35</v>
       </c>
       <c r="W107" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="X107" s="29">
         <v>20.297999999999998</v>
@@ -13061,7 +13061,7 @@
         <v>25</v>
       </c>
       <c r="W109" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="X109" s="29">
         <v>33.374000000000002</v>
@@ -13166,7 +13166,7 @@
         <v>15</v>
       </c>
       <c r="W110" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="X110" s="29">
         <v>25.882999999999999</v>
@@ -13213,7 +13213,7 @@
         <v>145</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E111" s="9">
         <v>70</v>
@@ -13796,7 +13796,7 @@
         <v>30</v>
       </c>
       <c r="W116" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="X116" s="29">
         <v>29.899000000000001</v>
@@ -14006,7 +14006,7 @@
         <v>34</v>
       </c>
       <c r="W118" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="X118" s="29">
         <v>39.569000000000003</v>
@@ -14368,7 +14368,7 @@
         <v>157</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E122" s="9">
         <v>98</v>
@@ -14531,7 +14531,7 @@
         <v>30</v>
       </c>
       <c r="W123" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="X123" s="29">
         <v>31.073</v>
@@ -14636,7 +14636,7 @@
         <v>30</v>
       </c>
       <c r="W124" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="X124" s="29">
         <v>11.805999999999999</v>
@@ -15000,7 +15000,7 @@
         <v>163</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E128" s="9">
         <v>54</v>
@@ -15210,7 +15210,7 @@
         <v>166</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E130" s="9">
         <v>80</v>
@@ -15315,7 +15315,7 @@
         <v>167</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E131" s="9">
         <v>43</v>
@@ -16108,7 +16108,7 @@
         <v>30</v>
       </c>
       <c r="W138" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="X138" s="29">
         <v>27.193999999999999</v>
@@ -16155,7 +16155,7 @@
         <v>176</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E139" s="9">
         <v>62</v>
@@ -16219,7 +16219,7 @@
         <v>31.841000000000001</v>
       </c>
       <c r="Y139" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Z139" s="32">
         <v>0.2</v>
@@ -16260,7 +16260,7 @@
         <v>178</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E140" s="9">
         <v>59</v>
@@ -16324,7 +16324,7 @@
         <v>28.661999999999999</v>
       </c>
       <c r="Y140" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Z140" s="32">
         <v>0.1</v>
@@ -16528,7 +16528,7 @@
         <v>25</v>
       </c>
       <c r="W142" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="X142" s="29">
         <v>35.24</v>
@@ -16738,7 +16738,7 @@
         <v>30</v>
       </c>
       <c r="W144" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="X144" s="29">
         <v>29.876999999999999</v>
@@ -16948,7 +16948,7 @@
         <v>33</v>
       </c>
       <c r="W146" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="X146" s="29">
         <v>32.292000000000002</v>
@@ -17053,7 +17053,7 @@
         <v>30</v>
       </c>
       <c r="W147" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="X147" s="29">
         <v>20.263000000000002</v>
@@ -17578,7 +17578,7 @@
         <v>28</v>
       </c>
       <c r="W152" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X152" s="29">
         <v>33.704999999999998</v>
@@ -17893,7 +17893,7 @@
         <v>35</v>
       </c>
       <c r="W155" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="X155" s="29">
         <v>12.478999999999999</v>
@@ -17942,7 +17942,7 @@
         <v>201</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E156" s="9">
         <v>167</v>
@@ -18105,7 +18105,7 @@
         <v>27.5</v>
       </c>
       <c r="W157" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="X157" s="29">
         <v>33.067</v>
@@ -18371,7 +18371,7 @@
         <v>255</v>
       </c>
       <c r="G160" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H160" s="10">
         <v>37.299999999999997</v>
@@ -18383,10 +18383,10 @@
         <v>30</v>
       </c>
       <c r="K160" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L160" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M160" s="10">
         <v>0</v>
@@ -18398,16 +18398,16 @@
         <v>55.71454984019244</v>
       </c>
       <c r="P160" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q160" s="11">
         <v>56.64</v>
       </c>
       <c r="R160" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="S160" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="T160" s="28">
         <v>14.2</v>
@@ -18736,7 +18736,7 @@
         <v>30</v>
       </c>
       <c r="W163" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="X163" s="29">
         <v>18.821000000000002</v>
@@ -19051,7 +19051,7 @@
         <v>27</v>
       </c>
       <c r="W166" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="X166" s="29">
         <v>27.382000000000001</v>
@@ -19203,7 +19203,7 @@
         <v>216</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E168" s="9">
         <v>87</v>
@@ -19681,7 +19681,7 @@
         <v>30</v>
       </c>
       <c r="W172" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X172" s="29">
         <v>18.016999999999999</v>
@@ -20045,7 +20045,7 @@
         <v>227</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E176" s="9">
         <v>17</v>
@@ -20150,7 +20150,7 @@
         <v>228</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E177" s="9">
         <v>38</v>
@@ -20467,7 +20467,7 @@
         <v>231</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E180" s="9">
         <v>179</v>
@@ -20688,7 +20688,7 @@
         <v>255</v>
       </c>
       <c r="G182" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H182" s="10">
         <v>37.299999999999997</v>
@@ -20700,7 +20700,7 @@
         <v>17.399999999999999</v>
       </c>
       <c r="K182" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L182" s="11">
         <v>77.248655146666664</v>
@@ -20718,13 +20718,13 @@
         <v>59.670080865199068</v>
       </c>
       <c r="Q182" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R182" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="S182" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="T182" s="28">
         <v>4.0999999999999996</v>
@@ -20948,7 +20948,7 @@
         <v>25</v>
       </c>
       <c r="W184" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="X184" s="29">
         <v>28.506</v>
@@ -21006,13 +21006,13 @@
         <v>255</v>
       </c>
       <c r="G185" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H185" s="10">
         <v>6.8</v>
       </c>
       <c r="I185" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J185" s="10">
         <v>11.6</v>
@@ -21021,7 +21021,7 @@
         <v>100</v>
       </c>
       <c r="L185" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M185" s="10">
         <v>0</v>
@@ -21033,16 +21033,16 @@
         <v>91.81105381655172</v>
       </c>
       <c r="P185" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q185" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R185" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="S185" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="T185" s="46" t="s">
         <v>255</v>
@@ -21182,7 +21182,7 @@
         <v>3</v>
       </c>
       <c r="AD186" s="45" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AE186" s="45" t="s">
         <v>255</v>
@@ -21545,7 +21545,7 @@
       <c r="AH201" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AH1">
+  <autoFilter ref="A1:AH1" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AH187">
       <sortCondition ref="A1"/>
     </sortState>
@@ -21556,7 +21556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -21568,7 +21568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
